--- a/public/data/pembelian/pembelian-terbaru_12122017.xlsx
+++ b/public/data/pembelian/pembelian-terbaru_12122017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\excel\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYPER SYSTEM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Kode Obat</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>tx2</t>
+  </si>
+  <si>
+    <t>kalpanax01</t>
+  </si>
+  <si>
+    <t>laserin892</t>
+  </si>
+  <si>
+    <t>paracetamol</t>
+  </si>
+  <si>
+    <t>antangin</t>
   </si>
 </sst>
 </file>
@@ -363,12 +375,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -389,50 +401,50 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
